--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slamf1-Slamf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slamf1-Slamf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,13 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Slamf1</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.157605</v>
+        <v>0.003316666666666667</v>
       </c>
       <c r="H2">
-        <v>0.472815</v>
+        <v>0.009950000000000001</v>
       </c>
       <c r="I2">
-        <v>0.9247618246646182</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="J2">
-        <v>0.9247618246646183</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.157605</v>
+        <v>0.003316666666666667</v>
       </c>
       <c r="N2">
-        <v>0.472815</v>
+        <v>0.009950000000000001</v>
       </c>
       <c r="O2">
-        <v>0.9247618246646182</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="P2">
-        <v>0.9247618246646183</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="Q2">
-        <v>0.024839336025</v>
+        <v>1.100027777777778E-05</v>
       </c>
       <c r="R2">
-        <v>0.223554024225</v>
+        <v>9.900250000000001E-05</v>
       </c>
       <c r="S2">
-        <v>0.855184432357034</v>
+        <v>0.0001804061129183332</v>
       </c>
       <c r="T2">
-        <v>0.8551844323570342</v>
+        <v>0.0001804061129183332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,46 +596,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
+        <v>0.003316666666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.009950000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.0134315342726858</v>
+      </c>
+      <c r="J3">
+        <v>0.0134315342726858</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
         <v>0.157605</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>0.472815</v>
       </c>
-      <c r="I3">
-        <v>0.9247618246646182</v>
-      </c>
-      <c r="J3">
-        <v>0.9247618246646183</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.000918</v>
-      </c>
-      <c r="N3">
-        <v>0.002754</v>
-      </c>
       <c r="O3">
-        <v>0.005386449383218295</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="P3">
-        <v>0.005386449383218296</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="Q3">
-        <v>0.00014468139</v>
+        <v>0.00052272325</v>
       </c>
       <c r="R3">
-        <v>0.00130213251</v>
+        <v>0.00470450925</v>
       </c>
       <c r="S3">
-        <v>0.004981182760088558</v>
+        <v>0.008572735304470521</v>
       </c>
       <c r="T3">
-        <v>0.00498118276008856</v>
+        <v>0.008572735304470521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -655,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.157605</v>
+        <v>0.003316666666666667</v>
       </c>
       <c r="H4">
-        <v>0.472815</v>
+        <v>0.009950000000000001</v>
       </c>
       <c r="I4">
-        <v>0.9247618246646182</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="J4">
-        <v>0.9247618246646183</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -673,43 +676,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01190466666666667</v>
+        <v>0.07624866666666667</v>
       </c>
       <c r="N4">
-        <v>0.035714</v>
+        <v>0.228746</v>
       </c>
       <c r="O4">
-        <v>0.06985172595216348</v>
+        <v>0.3087848983658076</v>
       </c>
       <c r="P4">
-        <v>0.06985172595216348</v>
+        <v>0.3087848983658075</v>
       </c>
       <c r="Q4">
-        <v>0.00187623499</v>
+        <v>0.0002528914111111112</v>
       </c>
       <c r="R4">
-        <v>0.01688611491</v>
+        <v>0.0022760227</v>
       </c>
       <c r="S4">
-        <v>0.06459620954749556</v>
+        <v>0.004147454945288145</v>
       </c>
       <c r="T4">
-        <v>0.06459620954749556</v>
+        <v>0.004147454945288144</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -717,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.000918</v>
+        <v>0.003316666666666667</v>
       </c>
       <c r="H5">
-        <v>0.002754</v>
+        <v>0.009950000000000001</v>
       </c>
       <c r="I5">
-        <v>0.005386449383218295</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="J5">
-        <v>0.005386449383218296</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.157605</v>
+        <v>0.009761000000000001</v>
       </c>
       <c r="N5">
-        <v>0.472815</v>
+        <v>0.029283</v>
       </c>
       <c r="O5">
-        <v>0.9247618246646182</v>
+        <v>0.0395292078499556</v>
       </c>
       <c r="P5">
-        <v>0.9247618246646183</v>
+        <v>0.03952920784995559</v>
       </c>
       <c r="Q5">
-        <v>0.00014468139</v>
+        <v>3.237398333333334E-05</v>
       </c>
       <c r="R5">
-        <v>0.00130213251</v>
+        <v>0.00029136585</v>
       </c>
       <c r="S5">
-        <v>0.004981182760088558</v>
+        <v>0.000530937910008799</v>
       </c>
       <c r="T5">
-        <v>0.00498118276008856</v>
+        <v>0.0005309379100087989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -764,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -779,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.000918</v>
+        <v>0.157605</v>
       </c>
       <c r="H6">
-        <v>0.002754</v>
+        <v>0.472815</v>
       </c>
       <c r="I6">
-        <v>0.005386449383218295</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="J6">
-        <v>0.005386449383218296</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -797,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.000918</v>
+        <v>0.003316666666666667</v>
       </c>
       <c r="N6">
-        <v>0.002754</v>
+        <v>0.009950000000000001</v>
       </c>
       <c r="O6">
-        <v>0.005386449383218295</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="P6">
-        <v>0.005386449383218296</v>
+        <v>0.0134315342726858</v>
       </c>
       <c r="Q6">
-        <v>8.427239999999999E-07</v>
+        <v>0.00052272325</v>
       </c>
       <c r="R6">
-        <v>7.584516E-06</v>
+        <v>0.00470450925</v>
       </c>
       <c r="S6">
-        <v>2.901383695797275E-05</v>
+        <v>0.008572735304470521</v>
       </c>
       <c r="T6">
-        <v>2.901383695797276E-05</v>
+        <v>0.008572735304470521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -826,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -841,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.000918</v>
+        <v>0.157605</v>
       </c>
       <c r="H7">
-        <v>0.002754</v>
+        <v>0.472815</v>
       </c>
       <c r="I7">
-        <v>0.005386449383218295</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="J7">
-        <v>0.005386449383218296</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -859,43 +862,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01190466666666667</v>
+        <v>0.157605</v>
       </c>
       <c r="N7">
-        <v>0.035714</v>
+        <v>0.472815</v>
       </c>
       <c r="O7">
-        <v>0.06985172595216348</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="P7">
-        <v>0.06985172595216348</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="Q7">
-        <v>1.0928484E-05</v>
+        <v>0.024839336025</v>
       </c>
       <c r="R7">
-        <v>9.835635599999999E-05</v>
+        <v>0.223554024225</v>
       </c>
       <c r="S7">
-        <v>0.0003762527861717643</v>
+        <v>0.4073686274355005</v>
       </c>
       <c r="T7">
-        <v>0.0003762527861717644</v>
+        <v>0.4073686274355005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -903,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01190466666666667</v>
+        <v>0.157605</v>
       </c>
       <c r="H8">
-        <v>0.035714</v>
+        <v>0.472815</v>
       </c>
       <c r="I8">
-        <v>0.06985172595216348</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="J8">
-        <v>0.06985172595216348</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -921,43 +924,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.157605</v>
+        <v>0.07624866666666667</v>
       </c>
       <c r="N8">
-        <v>0.472815</v>
+        <v>0.228746</v>
       </c>
       <c r="O8">
-        <v>0.9247618246646182</v>
+        <v>0.3087848983658076</v>
       </c>
       <c r="P8">
-        <v>0.9247618246646183</v>
+        <v>0.3087848983658075</v>
       </c>
       <c r="Q8">
-        <v>0.00187623499</v>
+        <v>0.01201717111</v>
       </c>
       <c r="R8">
-        <v>0.01688611491</v>
+        <v>0.10815453999</v>
       </c>
       <c r="S8">
-        <v>0.06459620954749556</v>
+        <v>0.1970833075333079</v>
       </c>
       <c r="T8">
-        <v>0.06459620954749556</v>
+        <v>0.1970833075333079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -965,46 +968,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01190466666666667</v>
+        <v>0.157605</v>
       </c>
       <c r="H9">
-        <v>0.035714</v>
+        <v>0.472815</v>
       </c>
       <c r="I9">
-        <v>0.06985172595216348</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="J9">
-        <v>0.06985172595216348</v>
+        <v>0.6382543595115512</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.000918</v>
+        <v>0.009761000000000001</v>
       </c>
       <c r="N9">
-        <v>0.002754</v>
+        <v>0.029283</v>
       </c>
       <c r="O9">
-        <v>0.005386449383218295</v>
+        <v>0.0395292078499556</v>
       </c>
       <c r="P9">
-        <v>0.005386449383218296</v>
+        <v>0.03952920784995559</v>
       </c>
       <c r="Q9">
-        <v>1.0928484E-05</v>
+        <v>0.001538382405</v>
       </c>
       <c r="R9">
-        <v>9.835635599999999E-05</v>
+        <v>0.013845441645</v>
       </c>
       <c r="S9">
-        <v>0.0003762527861717643</v>
+        <v>0.02522968923827239</v>
       </c>
       <c r="T9">
-        <v>0.0003762527861717644</v>
+        <v>0.02522968923827238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1012,61 +1015,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.07624866666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.228746</v>
+      </c>
+      <c r="I10">
+        <v>0.3087848983658076</v>
+      </c>
+      <c r="J10">
+        <v>0.3087848983658075</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.003316666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.009950000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.0134315342726858</v>
+      </c>
+      <c r="P10">
+        <v>0.0134315342726858</v>
+      </c>
+      <c r="Q10">
+        <v>0.0002528914111111112</v>
+      </c>
+      <c r="R10">
+        <v>0.0022760227</v>
+      </c>
+      <c r="S10">
+        <v>0.004147454945288145</v>
+      </c>
+      <c r="T10">
+        <v>0.004147454945288144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.07624866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.228746</v>
+      </c>
+      <c r="I11">
+        <v>0.3087848983658076</v>
+      </c>
+      <c r="J11">
+        <v>0.3087848983658075</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.157605</v>
+      </c>
+      <c r="N11">
+        <v>0.472815</v>
+      </c>
+      <c r="O11">
+        <v>0.6382543595115512</v>
+      </c>
+      <c r="P11">
+        <v>0.6382543595115512</v>
+      </c>
+      <c r="Q11">
+        <v>0.01201717111</v>
+      </c>
+      <c r="R11">
+        <v>0.10815453999</v>
+      </c>
+      <c r="S11">
+        <v>0.1970833075333079</v>
+      </c>
+      <c r="T11">
+        <v>0.1970833075333079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07624866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.228746</v>
+      </c>
+      <c r="I12">
+        <v>0.3087848983658076</v>
+      </c>
+      <c r="J12">
+        <v>0.3087848983658075</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07624866666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.228746</v>
+      </c>
+      <c r="O12">
+        <v>0.3087848983658076</v>
+      </c>
+      <c r="P12">
+        <v>0.3087848983658075</v>
+      </c>
+      <c r="Q12">
+        <v>0.005813859168444445</v>
+      </c>
+      <c r="R12">
+        <v>0.05232473251600001</v>
+      </c>
+      <c r="S12">
+        <v>0.09534811345878212</v>
+      </c>
+      <c r="T12">
+        <v>0.09534811345878208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07624866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.228746</v>
+      </c>
+      <c r="I13">
+        <v>0.3087848983658076</v>
+      </c>
+      <c r="J13">
+        <v>0.3087848983658075</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.009761000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.029283</v>
+      </c>
+      <c r="O13">
+        <v>0.0395292078499556</v>
+      </c>
+      <c r="P13">
+        <v>0.03952920784995559</v>
+      </c>
+      <c r="Q13">
+        <v>0.0007442632353333334</v>
+      </c>
+      <c r="R13">
+        <v>0.006698369118</v>
+      </c>
+      <c r="S13">
+        <v>0.01220602242842942</v>
+      </c>
+      <c r="T13">
+        <v>0.01220602242842942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.009761000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.029283</v>
+      </c>
+      <c r="I14">
+        <v>0.0395292078499556</v>
+      </c>
+      <c r="J14">
+        <v>0.03952920784995559</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.003316666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.009950000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.0134315342726858</v>
+      </c>
+      <c r="P14">
+        <v>0.0134315342726858</v>
+      </c>
+      <c r="Q14">
+        <v>3.237398333333334E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.00029136585</v>
+      </c>
+      <c r="S14">
+        <v>0.000530937910008799</v>
+      </c>
+      <c r="T14">
+        <v>0.0005309379100087989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.009761000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.029283</v>
+      </c>
+      <c r="I15">
+        <v>0.0395292078499556</v>
+      </c>
+      <c r="J15">
+        <v>0.03952920784995559</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.157605</v>
+      </c>
+      <c r="N15">
+        <v>0.472815</v>
+      </c>
+      <c r="O15">
+        <v>0.6382543595115512</v>
+      </c>
+      <c r="P15">
+        <v>0.6382543595115512</v>
+      </c>
+      <c r="Q15">
+        <v>0.001538382405</v>
+      </c>
+      <c r="R15">
+        <v>0.013845441645</v>
+      </c>
+      <c r="S15">
+        <v>0.02522968923827239</v>
+      </c>
+      <c r="T15">
+        <v>0.02522968923827238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01190466666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.035714</v>
-      </c>
-      <c r="I10">
-        <v>0.06985172595216348</v>
-      </c>
-      <c r="J10">
-        <v>0.06985172595216348</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01190466666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.035714</v>
-      </c>
-      <c r="O10">
-        <v>0.06985172595216348</v>
-      </c>
-      <c r="P10">
-        <v>0.06985172595216348</v>
-      </c>
-      <c r="Q10">
-        <v>0.0001417210884444444</v>
-      </c>
-      <c r="R10">
-        <v>0.001275489796</v>
-      </c>
-      <c r="S10">
-        <v>0.004879263618496148</v>
-      </c>
-      <c r="T10">
-        <v>0.004879263618496148</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.009761000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.029283</v>
+      </c>
+      <c r="I16">
+        <v>0.0395292078499556</v>
+      </c>
+      <c r="J16">
+        <v>0.03952920784995559</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07624866666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.228746</v>
+      </c>
+      <c r="O16">
+        <v>0.3087848983658076</v>
+      </c>
+      <c r="P16">
+        <v>0.3087848983658075</v>
+      </c>
+      <c r="Q16">
+        <v>0.0007442632353333334</v>
+      </c>
+      <c r="R16">
+        <v>0.006698369118</v>
+      </c>
+      <c r="S16">
+        <v>0.01220602242842942</v>
+      </c>
+      <c r="T16">
+        <v>0.01220602242842942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.009761000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.029283</v>
+      </c>
+      <c r="I17">
+        <v>0.0395292078499556</v>
+      </c>
+      <c r="J17">
+        <v>0.03952920784995559</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.009761000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.029283</v>
+      </c>
+      <c r="O17">
+        <v>0.0395292078499556</v>
+      </c>
+      <c r="P17">
+        <v>0.03952920784995559</v>
+      </c>
+      <c r="Q17">
+        <v>9.527712100000001E-05</v>
+      </c>
+      <c r="R17">
+        <v>0.000857494089</v>
+      </c>
+      <c r="S17">
+        <v>0.001562558273244991</v>
+      </c>
+      <c r="T17">
+        <v>0.001562558273244991</v>
       </c>
     </row>
   </sheetData>
